--- a/PANAMÁ/Género/mujeres en el órgano legislativo nacional.xls.xlsx
+++ b/PANAMÁ/Género/mujeres en el órgano legislativo nacional.xls.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E68CC72-A6BA-4318-8A6C-9A8138F1981B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBE5981-A0F4-442B-9889-E2ECCFE6638B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nivel" sheetId="1" r:id="rId1"/>
@@ -100,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -266,6 +266,12 @@
       <i/>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -627,9 +633,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -640,6 +643,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -909,11 +915,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:B24" totalsRowShown="0">
-  <autoFilter ref="A1:B24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:B24" totalsRowShown="0">
+  <autoFilter ref="A1:B24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Años" dataDxfId="1"/>
-    <tableColumn id="3" name="% Mujeres" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Años" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="% Mujeres" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1215,16 +1221,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="4" max="4" width="2.85546875" customWidth="1"/>
     <col min="6" max="6" width="2.85546875" customWidth="1"/>
     <col min="8" max="8" width="2.85546875" customWidth="1"/>
@@ -1351,197 +1357,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>9.9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>9.9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>9.9</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>9.9</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>16.7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>16.7</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>16.7</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>16.7</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>16.7</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>8.4507042250000008</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>8.4506999999999994</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>8.450704</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>8.450704</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>8.4507042250000008</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>19.298245609999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>18.309859199999998</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>18.309859150000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>18.309859150000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>18.309859150000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>21.13</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
